--- a/templates/Messages.xlsx
+++ b/templates/Messages.xlsx
@@ -27,41 +27,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅是用于加载数据用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁体文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#此列为每行数据的概要
+#此行为每列字段的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#此行为每列字段的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#此行为每列字段的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>字段备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅仅是用于加载数据用的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msg_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>msg_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁体文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简体文本</t>
+  </si>
+  <si>
+    <t>#此列为每行数据的概要
+#此行为每列字段的说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +99,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,11 +140,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,41 +501,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -513,43 +556,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -560,83 +615,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/templates/Messages.xlsx
+++ b/templates/Messages.xlsx
@@ -29,10 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,10 @@
   <si>
     <t>#此列为每行数据的概要
 #此行为每列字段的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -514,37 +514,37 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +562,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -573,37 +573,37 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +621,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -632,37 +632,37 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +680,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -691,37 +691,37 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
